--- a/Question_Sets/Role-specific skills/Financial Management.xlsx
+++ b/Question_Sets/Role-specific skills/Financial Management.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Your company’s estimated sales are $10,000 if no credit time is allowed. Sales will increase to $12,000 if credit time of one month is allowed. However, one month’s credit time will result in 5% bad debts. Your company’s contribution to sales ratio is 0.30, and its finance cost is 10%. What is your company’s total profit with no credit time and with a credit time of one month?', 'ques_type': 2, 'options': ['No credit time: $3,000Credit time of one month: $2,900', 'No credit time: $3,000Credit time of one month: $3,600', 'No credit time: $3,000Credit time of one month: $3,500', 'No credit time: $2,500Credit time of one month: $3,000'], 'score': 'No credit time: $3,000Credit time of one month: $2,900'}, {'title': 'Tulip Company wants to acquire Lilly Company. Lilly Company’s price/earnings (P/E) ratio is 5, and its earning per share (EPS) is $2.  Using the P/E ratio to evaluate the value of business, what price should Tulip Company be willing to pay to buy Lilly Company?', 'ques_type': 2, 'options': ['$2 per share', '$5 per share', '$7 per share', '$10 per share'], 'score': '$10 per share'}, {'title': 'Your company is considering taking out a bank loan of $100,000 to finance an investment opportunity. The bank has agreed to issue the loan at an interest rate of 10%. A tax rate of 30% applies on all of the company’s profits.  What is the cost of this debt capital to the company?', 'ques_type': 2, 'options': ['3%', '7%', '10%', '13%'], 'score': '7%'}, {'title': 'You are working as a financial controller at a mutual fund. During the last year, management was concerned about significant fluctuation in the rate of return on funds invested. Management asked you to take measures to reduce this volatility.Which of the following actions should help you reduce this risk?', 'ques_type': 2, 'options': ['Invest all funds in shares of oil and gas sector companies only.', 'Create a portfolio of negatively correlated investments.', 'Create a portfolio of positively correlated investments.', 'Create a portfolio with no correlation among the investments.'], 'score': 'Create a portfolio of negatively correlated investments.'}]</t>
+    <t>questions = [
+    {
+        "title": "Your company\u2019s estimated sales are $10,000 if no credit time is allowed. Sales will increase to $12,000 if credit time of one month is allowed. However, one month\u2019s credit time will result in 5% bad debts. Your company\u2019s contribution to sales ratio is 0.30, and its finance cost is 10%. What is your company\u2019s total profit with no credit time and with a credit time of one month?",
+        "ques_type": 2,
+        "options": [
+            "No credit time: $3,000Credit time of one month: $2,900",
+            "No credit time: $3,000Credit time of one month: $3,600",
+            "No credit time: $3,000Credit time of one month: $3,500",
+            "No credit time: $2,500Credit time of one month: $3,000"
+        ],
+        "score": "No credit time: $3,000Credit time of one month: $2,900"
+    },
+    {
+        "title": "Tulip Company wants to acquire Lilly Company. Lilly Company\u2019s price/earnings (P/E) ratio is 5, and its earning per share (EPS) is $2.  Using the P/E ratio to evaluate the value of business, what price should Tulip Company be willing to pay to buy Lilly Company?",
+        "ques_type": 2,
+        "options": [
+            "$2 per share",
+            "$5 per share",
+            "$7 per share",
+            "$10 per share"
+        ],
+        "score": "$10 per share"
+    },
+    {
+        "title": "Your company is considering taking out a bank loan of $100,000 to finance an investment opportunity. The bank has agreed to issue the loan at an interest rate of 10%. A tax rate of 30% applies on all of the company\u2019s profits.  What is the cost of this debt capital to the company?",
+        "ques_type": 2,
+        "options": [
+            "3%",
+            "7%",
+            "10%",
+            "13%"
+        ],
+        "score": "7%"
+    },
+    {
+        "title": "You are working as a financial controller at a mutual fund. During the last year, management was concerned about significant fluctuation in the rate of return on funds invested. Management asked you to take measures to reduce this volatility.Which of the following actions should help you reduce this risk?",
+        "ques_type": 2,
+        "options": [
+            "Invest all funds in shares of oil and gas sector companies only.",
+            "Create a portfolio of negatively correlated investments.",
+            "Create a portfolio of positively correlated investments.",
+            "Create a portfolio with no correlation among the investments."
+        ],
+        "score": "Create a portfolio of negatively correlated investments."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
